--- a/outputs/backtest/grid_results.xlsx
+++ b/outputs/backtest/grid_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burakkara/OZU/CS540/projectCS540/outputs/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD1F610-57CD-F346-BCAA-439CA196F50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A948F8-A4B1-CC4D-9D59-132025955124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$79</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>alpha</t>
   </si>
@@ -43,12 +55,27 @@
   <si>
     <t>expected_last_money</t>
   </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>realized_profit</t>
+  </si>
+  <si>
+    <t>expected_profit</t>
+  </si>
+  <si>
+    <t>Realization - Expectation Diff</t>
+  </si>
+  <si>
+    <t>Avg R-E Diff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +89,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -94,18 +136,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,9 +546,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F77"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2008,19 +2144,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F86765-4672-6C4B-BC56-AF761FEAD071}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,16 +2172,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2050,17 +2198,32 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="4">
         <v>1901.3540879584241</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="6">
+        <f>(D2-1000)/1000</f>
+        <v>0.90135408795842409</v>
+      </c>
+      <c r="F2" s="4">
         <v>2328.8513115669198</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="6">
+        <f>(F2-1000)/1000</f>
+        <v>1.3288513115669198</v>
+      </c>
+      <c r="H2" s="8">
+        <f>G2-E2</f>
+        <v>0.42749722360849574</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2070,17 +2233,33 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="4">
         <v>1844.2329648387349</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E40" si="0">(D3-1000)/1000</f>
+        <v>0.84423296483873489</v>
+      </c>
+      <c r="F3" s="4">
         <v>2258.8871721475771</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G40" si="1">(F3-1000)/1000</f>
+        <v>1.2588871721475772</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H40" si="2">G3-E3</f>
+        <v>0.41465420730884228</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <f>AVERAGEIF(A:A,J3,H:H)</f>
+        <v>0.40910948837511568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2090,17 +2269,33 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="4">
         <v>1720.005061790584</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.72000506179058399</v>
+      </c>
+      <c r="F4" s="4">
         <v>2105.182095998593</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>1.105182095998593</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.38517703420800897</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="12">
+        <f>AVERAGEIF(A:A,J4,H:H)</f>
+        <v>2.5987195189443757E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -2110,17 +2305,33 @@
       <c r="C5">
         <v>80</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="4">
         <v>1134.965629945875</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13496562994587499</v>
+      </c>
+      <c r="F5" s="4">
         <v>1176.256125511575</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.17625612551157496</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="2"/>
+        <v>4.1290495565699969E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="12">
+        <f>AVERAGEIF(A:A,J5,H:H)</f>
+        <v>1.9449342247157237E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -2130,17 +2341,33 @@
       <c r="C6">
         <v>80</v>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="4">
         <v>1128.755156119011</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12875515611901095</v>
+      </c>
+      <c r="F6" s="4">
         <v>1168.023471929894</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.16802347192989395</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="2"/>
+        <v>3.9268315810882998E-2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="14">
+        <f>AVERAGEIF(A:A,J6,H:H)</f>
+        <v>1.6139265526104469E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.25</v>
       </c>
@@ -2150,17 +2377,26 @@
       <c r="C7">
         <v>60</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="4">
         <v>1123.4245675669381</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12342456756693809</v>
+      </c>
+      <c r="F7" s="4">
         <v>1179.245649870214</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.17924564987021405</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="2"/>
+        <v>5.5821082303275954E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.25</v>
       </c>
@@ -2170,17 +2406,26 @@
       <c r="C8">
         <v>60</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="4">
         <v>1118.157553839512</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11815755383951204</v>
+      </c>
+      <c r="F8" s="4">
         <v>1172.013191035001</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.17201319103500101</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="2"/>
+        <v>5.385563719548897E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.25</v>
       </c>
@@ -2190,17 +2435,26 @@
       <c r="C9">
         <v>80</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="4">
         <v>1112.7536086298089</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11275360862980892</v>
+      </c>
+      <c r="F9" s="4">
         <v>1147.936533506112</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14793653350611202</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="2"/>
+        <v>3.5182924876303104E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -2210,17 +2464,26 @@
       <c r="C10">
         <v>60</v>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="4">
         <v>1110.881028180052</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11088102818005199</v>
+      </c>
+      <c r="F10" s="4">
         <v>1156.1965279256649</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.15619652792566491</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="2"/>
+        <v>4.5315499745612914E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.25</v>
       </c>
@@ -2230,17 +2493,26 @@
       <c r="C11">
         <v>60</v>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="4">
         <v>1108.102684538718</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10810268453871799</v>
+      </c>
+      <c r="F11" s="4">
         <v>1158.041885540759</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.15804188554075904</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
+        <v>4.993920100204105E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.5</v>
       </c>
@@ -2250,17 +2522,26 @@
       <c r="C12">
         <v>60</v>
       </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="4">
         <v>1107.478434591824</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.107478434591824</v>
+      </c>
+      <c r="F12" s="4">
         <v>1151.0327147051919</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.15103271470519189</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>4.3554280113367885E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.9</v>
       </c>
@@ -2270,17 +2551,26 @@
       <c r="C13">
         <v>60</v>
       </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="4">
         <v>1106.0728209782719</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10607282097827192</v>
+      </c>
+      <c r="F13" s="4">
         <v>1143.497475203696</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14349747520369602</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>3.7424654225424098E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.9</v>
       </c>
@@ -2290,17 +2580,26 @@
       <c r="C14">
         <v>60</v>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="4">
         <v>1103.3708913640021</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10337089136400208</v>
+      </c>
+      <c r="F14" s="4">
         <v>1139.47707128039</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13947707128038997</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>3.6106179916387884E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -2310,17 +2609,26 @@
       <c r="C15">
         <v>80</v>
       </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="4">
         <v>1100.4750459737991</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10047504597379907</v>
+      </c>
+      <c r="F15" s="4">
         <v>1124.8946282396689</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12489462823966892</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>2.4419582265869849E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -2330,17 +2638,26 @@
       <c r="C16">
         <v>60</v>
       </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="4">
         <v>1100.2171173357931</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1002171173357931</v>
+      </c>
+      <c r="F16" s="4">
         <v>1139.9204045351689</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13992040453516894</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="2"/>
+        <v>3.9703287199375839E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.9</v>
       </c>
@@ -2350,17 +2667,26 @@
       <c r="C17">
         <v>60</v>
       </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="4">
         <v>1096.6100439534821</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>9.6610043953482092E-2</v>
+      </c>
+      <c r="F17" s="4">
         <v>1130.1122272590039</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13011222725900393</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="2"/>
+        <v>3.3502183305521835E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.5</v>
       </c>
@@ -2370,17 +2696,26 @@
       <c r="C18">
         <v>80</v>
       </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="4">
         <v>1095.7216902764289</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5721690276428947E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>1119.424084605346</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11942408460534602</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="2"/>
+        <v>2.3702394328917076E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.25</v>
       </c>
@@ -2390,17 +2725,26 @@
       <c r="C19">
         <v>40</v>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="4">
         <v>1094.4966147457101</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>9.449661474571007E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>1115.7521392307519</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11575213923075194</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="2"/>
+        <v>2.1255524485041866E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -2410,17 +2754,26 @@
       <c r="C20">
         <v>40</v>
       </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="4">
         <v>1093.1158443244869</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>9.311584432448694E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>1113.6863419660119</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11368634196601192</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0570497641524979E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.25</v>
       </c>
@@ -2430,17 +2783,26 @@
       <c r="C21">
         <v>40</v>
       </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="4">
         <v>1092.2859274930511</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>9.2285927493051076E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>1113.0878114017851</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11308781140178507</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0801883908733998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.5</v>
       </c>
@@ -2450,17 +2812,26 @@
       <c r="C22">
         <v>40</v>
       </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="4">
         <v>1090.9734669908769</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0973466990876883E-2</v>
+      </c>
+      <c r="F22" s="4">
         <v>1111.1167737461069</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1111167737461069</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0143306755230017E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.9</v>
       </c>
@@ -2470,17 +2841,26 @@
       <c r="C23">
         <v>40</v>
       </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="4">
         <v>1090.5503507672249</v>
       </c>
-      <c r="F23">
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0550350767224924E-2</v>
+      </c>
+      <c r="F23" s="4">
         <v>1109.6415503353501</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10964155033535007</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9091199568125147E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.9</v>
       </c>
@@ -2490,17 +2870,26 @@
       <c r="C24">
         <v>40</v>
       </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="4">
         <v>1088.727738862146</v>
       </c>
-      <c r="F24">
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8727738862145994E-2</v>
+      </c>
+      <c r="F24" s="4">
         <v>1107.5014479980271</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10750144799802706</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="2"/>
+        <v>1.877370913588107E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.25</v>
       </c>
@@ -2510,17 +2899,26 @@
       <c r="C25">
         <v>40</v>
       </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="4">
         <v>1087.8125936433521</v>
       </c>
-      <c r="F25">
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>8.7812593643352102E-2</v>
+      </c>
+      <c r="F25" s="4">
         <v>1107.702107989996</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10770210798999597</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9889514346643863E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.5</v>
       </c>
@@ -2530,17 +2928,26 @@
       <c r="C26">
         <v>80</v>
       </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="4">
         <v>1087.4514569812391</v>
       </c>
-      <c r="F26">
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>8.7451456981239059E-2</v>
+      </c>
+      <c r="F26" s="4">
         <v>1109.5887698059771</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10958876980597711</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2137312824738048E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.5</v>
       </c>
@@ -2550,17 +2957,26 @@
       <c r="C27">
         <v>40</v>
       </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="4">
         <v>1086.637280035189</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>8.6637280035188946E-2</v>
+      </c>
+      <c r="F27" s="4">
         <v>1105.9416734606209</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1059416734606209</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9304393425431957E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.9</v>
       </c>
@@ -2570,17 +2986,26 @@
       <c r="C28">
         <v>80</v>
       </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="4">
         <v>1085.7462819752579</v>
       </c>
-      <c r="F28">
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>8.5746281975257937E-2</v>
+      </c>
+      <c r="F28" s="4">
         <v>1105.112417023453</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10511241702345296</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9366135048195024E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.9</v>
       </c>
@@ -2590,17 +3015,26 @@
       <c r="C29">
         <v>40</v>
       </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="4">
         <v>1084.862113593146</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>8.486211359314598E-2</v>
+      </c>
+      <c r="F29" s="4">
         <v>1103.007187094084</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10300718709408398</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8145073500937997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.25</v>
       </c>
@@ -2610,17 +3044,26 @@
       <c r="C30">
         <v>20</v>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="4">
         <v>1084.2139258266329</v>
       </c>
-      <c r="F30">
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4213925826632924E-2</v>
+      </c>
+      <c r="F30" s="4">
         <v>1075.763583064564</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5763583064564044E-2</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.4503427620688798E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -2630,17 +3073,26 @@
       <c r="C31">
         <v>20</v>
       </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="4">
         <v>1084.2127809590449</v>
       </c>
-      <c r="F31">
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4212780959044956E-2</v>
+      </c>
+      <c r="F31" s="4">
         <v>1075.7622883638769</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5762288363876912E-2</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.4504925951680437E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -2650,17 +3102,26 @@
       <c r="C32">
         <v>20</v>
       </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="4">
         <v>1084.2123886790621</v>
       </c>
-      <c r="F32">
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4212388679062083E-2</v>
+      </c>
+      <c r="F32" s="4">
         <v>1075.761985141283</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5761985141283045E-2</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.4504035377790387E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.9</v>
       </c>
@@ -2670,17 +3131,26 @@
       <c r="C33">
         <v>20</v>
       </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="4">
         <v>1084.1392362531531</v>
       </c>
-      <c r="F33">
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>8.413923625315306E-2</v>
+      </c>
+      <c r="F33" s="4">
         <v>1075.675757971617</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5675757971617033E-2</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.4634782815360271E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.5</v>
       </c>
@@ -2690,17 +3160,26 @@
       <c r="C34">
         <v>20</v>
       </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="4">
         <v>1084.1392140030259</v>
       </c>
-      <c r="F34">
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4139214003025931E-2</v>
+      </c>
+      <c r="F34" s="4">
         <v>1075.6758212873101</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5675821287310097E-2</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.463392715715834E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.25</v>
       </c>
@@ -2710,17 +3189,26 @@
       <c r="C35">
         <v>20</v>
       </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="4">
         <v>1084.139073018873</v>
       </c>
-      <c r="F35">
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4139073018872981E-2</v>
+      </c>
+      <c r="F35" s="4">
         <v>1075.6757536453711</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5675753645371061E-2</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.4633193735019208E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.5</v>
       </c>
@@ -2730,17 +3218,26 @@
       <c r="C36">
         <v>20</v>
       </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="4">
         <v>1083.8253321348809</v>
       </c>
-      <c r="F36">
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3825332134880914E-2</v>
+      </c>
+      <c r="F36" s="4">
         <v>1075.280681054194</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5280681054194026E-2</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.5446510806868881E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.9</v>
       </c>
@@ -2750,17 +3247,26 @@
       <c r="C37">
         <v>20</v>
       </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="4">
         <v>1083.8252398846751</v>
       </c>
-      <c r="F37">
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3825239884675051E-2</v>
+      </c>
+      <c r="F37" s="4">
         <v>1075.2805023083069</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5280502308306949E-2</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.5447375763681027E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.25</v>
       </c>
@@ -2770,17 +3276,26 @@
       <c r="C38">
         <v>20</v>
       </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="4">
         <v>1083.82505250494</v>
       </c>
-      <c r="F38">
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3825052504940004E-2</v>
+      </c>
+      <c r="F38" s="4">
         <v>1075.2804774197241</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5280477419724087E-2</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="2"/>
+        <v>-8.5445750852159164E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.9</v>
       </c>
@@ -2790,17 +3305,26 @@
       <c r="C39">
         <v>80</v>
       </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="4">
         <v>1083.7437218378011</v>
       </c>
-      <c r="F39">
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3743721837801099E-2</v>
+      </c>
+      <c r="F39" s="4">
         <v>1102.6248600765159</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10262486007651592</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8881138238714817E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.9</v>
       </c>
@@ -2810,14 +3334,23 @@
       <c r="C40">
         <v>80</v>
       </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="4">
         <v>1079.771756519948</v>
       </c>
-      <c r="F40">
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>7.9771756519947987E-2</v>
+      </c>
+      <c r="F40" s="4">
         <v>1097.611378347086</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="1"/>
+        <v>9.761137834708597E-2</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7839621827137983E-2</v>
       </c>
     </row>
   </sheetData>
